--- a/bb10_data_for_analysis.xlsx
+++ b/bb10_data_for_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://leonschools-my.sharepoint.com/personal/171024997_edu_leonschools_net/Documents/Extended Essay/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="660" documentId="11_EB73B4F0AAE63CA2F8CEA748B4CC0DEC18B1AFE3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6927F309-0FA2-4AEF-A523-991E46FD06E1}"/>
+  <xr:revisionPtr revIDLastSave="786" documentId="11_EB73B4F0AAE63CA2F8CEA748B4CC0DEC18B1AFE3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65C029F8-6DBF-4FCF-82A5-4F848052F92F}"/>
   <bookViews>
-    <workbookView xWindow="16365" yWindow="4065" windowWidth="19890" windowHeight="10935" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="3690" windowWidth="19185" windowHeight="10920" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2011 Charts" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="351">
   <si>
     <t>Artist</t>
   </si>
@@ -787,9 +787,6 @@
     <t>F#</t>
   </si>
   <si>
-    <t>major</t>
-  </si>
-  <si>
     <t>Moderato - 105</t>
   </si>
   <si>
@@ -844,9 +841,6 @@
     <t>Andante - 92</t>
   </si>
   <si>
-    <t>Allegor - 127</t>
-  </si>
-  <si>
     <t>Allegro Moderato - 116</t>
   </si>
   <si>
@@ -997,9 +991,6 @@
     <t>4 5 6 7</t>
   </si>
   <si>
-    <t>6 3 7 1</t>
-  </si>
-  <si>
     <t>1 6 4 6</t>
   </si>
   <si>
@@ -1067,6 +1058,42 @@
   </si>
   <si>
     <t>Moderato</t>
+  </si>
+  <si>
+    <t>Allegro - 127</t>
+  </si>
+  <si>
+    <t>Occurrences</t>
+  </si>
+  <si>
+    <t>IV - I</t>
+  </si>
+  <si>
+    <t>No Distinct Chord Pair</t>
+  </si>
+  <si>
+    <t>I - V</t>
+  </si>
+  <si>
+    <t>V - I</t>
+  </si>
+  <si>
+    <t>I - IV</t>
+  </si>
+  <si>
+    <t>VI - IV, IV - I, V - VI</t>
+  </si>
+  <si>
+    <t>IV - I, V - VI</t>
+  </si>
+  <si>
+    <t>I - III</t>
+  </si>
+  <si>
+    <t>I - VI</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -1082,15 +1109,45 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1098,12 +1155,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1445,7 +1535,7 @@
   <dimension ref="A2:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1592,37 +1682,37 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C6" t="s">
         <v>249</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>250</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>251</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>249</v>
+      </c>
+      <c r="G6" t="s">
         <v>252</v>
       </c>
-      <c r="F6" t="s">
-        <v>250</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>253</v>
       </c>
-      <c r="H6" t="s">
-        <v>254</v>
-      </c>
       <c r="I6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1692,7 +1782,7 @@
         <v>219</v>
       </c>
       <c r="K8" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1740,7 +1830,7 @@
   <dimension ref="A2:K9"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:H22"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1933,7 +2023,7 @@
         <v>211</v>
       </c>
       <c r="B7" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="C7" t="s">
         <v>213</v>
@@ -1968,7 +2058,7 @@
         <v>218</v>
       </c>
       <c r="B8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C8" t="s">
         <v>219</v>
@@ -2040,15 +2130,21 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18DDFFA3-E949-4DCD-8BA8-3FBAC99F8D4E}">
-  <dimension ref="B3:I14"/>
+  <dimension ref="B3:O22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O22" sqref="M11:O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="20.28515625" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>221</v>
       </c>
@@ -2068,9 +2164,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E4">
         <v>36</v>
@@ -2082,9 +2178,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E5">
         <v>15</v>
@@ -2096,7 +2192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>229</v>
       </c>
@@ -2104,7 +2200,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>226</v>
       </c>
@@ -2112,7 +2208,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>228</v>
       </c>
@@ -2120,7 +2216,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>230</v>
       </c>
@@ -2130,37 +2229,256 @@
       <c r="D10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H10" s="1"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>216</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I11" s="6">
+        <v>2011</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="M11" s="7"/>
+      <c r="N11" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>215</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I12" s="6">
+        <v>2012</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="K12" s="2">
+        <v>4</v>
+      </c>
+      <c r="M12" s="6">
+        <v>2011</v>
+      </c>
+      <c r="N12" s="3">
+        <v>6</v>
+      </c>
+      <c r="O12" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>217</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I13" s="6">
+        <v>2013</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="K13" s="2">
+        <v>5</v>
+      </c>
+      <c r="M13" s="6">
+        <v>2012</v>
+      </c>
+      <c r="N13" s="3">
+        <v>6</v>
+      </c>
+      <c r="O13" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>212</v>
       </c>
       <c r="D14">
         <v>1</v>
+      </c>
+      <c r="I14" s="6">
+        <v>2014</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="K14" s="2">
+        <v>3</v>
+      </c>
+      <c r="M14" s="6">
+        <v>2013</v>
+      </c>
+      <c r="N14" s="3">
+        <v>7</v>
+      </c>
+      <c r="O14" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I15" s="6">
+        <v>2015</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="K15" s="2">
+        <v>8</v>
+      </c>
+      <c r="M15" s="6">
+        <v>2014</v>
+      </c>
+      <c r="N15" s="3">
+        <v>4</v>
+      </c>
+      <c r="O15" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I16" s="6">
+        <v>2016</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="K16" s="2">
+        <v>3</v>
+      </c>
+      <c r="M16" s="6">
+        <v>2015</v>
+      </c>
+      <c r="N16" s="3">
+        <v>5</v>
+      </c>
+      <c r="O16" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I17" s="6">
+        <v>2017</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="K17" s="2">
+        <v>3</v>
+      </c>
+      <c r="M17" s="6">
+        <v>2016</v>
+      </c>
+      <c r="N17" s="3">
+        <v>5</v>
+      </c>
+      <c r="O17" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I18" s="6">
+        <v>2018</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="K18" s="2">
+        <v>6</v>
+      </c>
+      <c r="M18" s="6">
+        <v>2017</v>
+      </c>
+      <c r="N18" s="3">
+        <v>5</v>
+      </c>
+      <c r="O18" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I19" s="6">
+        <v>2019</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="K19" s="2">
+        <v>4</v>
+      </c>
+      <c r="M19" s="6">
+        <v>2018</v>
+      </c>
+      <c r="N19" s="3">
+        <v>7</v>
+      </c>
+      <c r="O19" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I20" s="6">
+        <v>2020</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="K20" s="2">
+        <v>3</v>
+      </c>
+      <c r="M20" s="6">
+        <v>2019</v>
+      </c>
+      <c r="N20" s="3">
+        <v>3</v>
+      </c>
+      <c r="O20" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="M21" s="6">
+        <v>2020</v>
+      </c>
+      <c r="N21" s="3">
+        <v>5</v>
+      </c>
+      <c r="O21" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="N22" s="3">
+        <f>SUM(N12:N21)</f>
+        <v>53</v>
+      </c>
+      <c r="O22" s="2">
+        <f>SUM(O12:O21)</f>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2173,8 +2491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2292,66 +2610,66 @@
         <v>235</v>
       </c>
       <c r="C5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D5" t="s">
+        <v>256</v>
+      </c>
+      <c r="E5" t="s">
         <v>257</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>258</v>
       </c>
-      <c r="F5" t="s">
-        <v>259</v>
-      </c>
       <c r="G5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H5" t="s">
         <v>242</v>
       </c>
       <c r="I5" t="s">
+        <v>260</v>
+      </c>
+      <c r="J5" t="s">
         <v>261</v>
       </c>
-      <c r="J5" t="s">
-        <v>262</v>
-      </c>
       <c r="K5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D6" t="s">
         <v>265</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>252</v>
+      </c>
+      <c r="F6" t="s">
+        <v>264</v>
+      </c>
+      <c r="G6" t="s">
+        <v>339</v>
+      </c>
+      <c r="H6" t="s">
         <v>266</v>
       </c>
-      <c r="E6" t="s">
+      <c r="I6" t="s">
         <v>253</v>
       </c>
-      <c r="F6" t="s">
-        <v>265</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="J6" t="s">
         <v>267</v>
       </c>
-      <c r="H6" t="s">
-        <v>268</v>
-      </c>
-      <c r="I6" t="s">
-        <v>254</v>
-      </c>
-      <c r="J6" t="s">
-        <v>269</v>
-      </c>
       <c r="K6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2362,7 +2680,7 @@
         <v>216</v>
       </c>
       <c r="C7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D7" t="s">
         <v>236</v>
@@ -2377,7 +2695,7 @@
         <v>214</v>
       </c>
       <c r="H7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I7" t="s">
         <v>212</v>
@@ -2386,7 +2704,7 @@
         <v>216</v>
       </c>
       <c r="K7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2469,7 +2787,7 @@
   <dimension ref="A2:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2584,28 +2902,28 @@
         <v>193</v>
       </c>
       <c r="B5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D5" t="s">
         <v>270</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>271</v>
       </c>
-      <c r="D5" t="s">
-        <v>272</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>273</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
+        <v>274</v>
+      </c>
+      <c r="H5" t="s">
         <v>275</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>276</v>
-      </c>
-      <c r="H5" t="s">
-        <v>277</v>
-      </c>
-      <c r="I5" t="s">
-        <v>278</v>
       </c>
       <c r="J5" t="s">
         <v>202</v>
@@ -2616,37 +2934,37 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D6" t="s">
+        <v>278</v>
+      </c>
+      <c r="E6" t="s">
         <v>279</v>
       </c>
-      <c r="C6" t="s">
-        <v>265</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>280</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>281</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
+        <v>277</v>
+      </c>
+      <c r="I6" t="s">
         <v>282</v>
       </c>
-      <c r="G6" t="s">
+      <c r="J6" t="s">
         <v>283</v>
       </c>
-      <c r="H6" t="s">
-        <v>279</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>284</v>
-      </c>
-      <c r="J6" t="s">
-        <v>285</v>
-      </c>
-      <c r="K6" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2657,7 +2975,7 @@
         <v>239</v>
       </c>
       <c r="C7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D7" t="s">
         <v>215</v>
@@ -2666,13 +2984,13 @@
         <v>214</v>
       </c>
       <c r="F7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G7" t="s">
         <v>212</v>
       </c>
       <c r="H7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I7" t="s">
         <v>213</v>
@@ -2764,7 +3082,7 @@
   <dimension ref="A2:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2879,69 +3197,69 @@
         <v>193</v>
       </c>
       <c r="B5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D5" t="s">
         <v>287</v>
       </c>
-      <c r="C5" t="s">
-        <v>288</v>
-      </c>
-      <c r="D5" t="s">
-        <v>289</v>
-      </c>
       <c r="E5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F5" t="s">
         <v>197</v>
       </c>
       <c r="G5" t="s">
+        <v>288</v>
+      </c>
+      <c r="H5" t="s">
+        <v>289</v>
+      </c>
+      <c r="I5" t="s">
         <v>290</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>291</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>292</v>
-      </c>
-      <c r="J5" t="s">
-        <v>293</v>
-      </c>
-      <c r="K5" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B6" t="s">
+        <v>293</v>
+      </c>
+      <c r="C6" t="s">
+        <v>294</v>
+      </c>
+      <c r="D6" t="s">
         <v>295</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
+        <v>277</v>
+      </c>
+      <c r="F6" t="s">
         <v>296</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G6" t="s">
         <v>297</v>
       </c>
-      <c r="E6" t="s">
-        <v>279</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>298</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>299</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>300</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>301</v>
-      </c>
-      <c r="J6" t="s">
-        <v>302</v>
-      </c>
-      <c r="K6" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2970,7 +3288,7 @@
         <v>217</v>
       </c>
       <c r="I7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J7" t="s">
         <v>239</v>
@@ -3059,7 +3377,7 @@
   <dimension ref="A2:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3174,42 +3492,42 @@
         <v>193</v>
       </c>
       <c r="B5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D5" t="s">
         <v>304</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>305</v>
       </c>
-      <c r="D5" t="s">
-        <v>306</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>307</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
+        <v>308</v>
+      </c>
+      <c r="H5" t="s">
         <v>309</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
+        <v>302</v>
+      </c>
+      <c r="J5" t="s">
         <v>310</v>
       </c>
-      <c r="H5" t="s">
+      <c r="K5" t="s">
         <v>311</v>
-      </c>
-      <c r="I5" t="s">
-        <v>304</v>
-      </c>
-      <c r="J5" t="s">
-        <v>312</v>
-      </c>
-      <c r="K5" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B6" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C6" t="s">
         <v>226</v>
@@ -3218,25 +3536,25 @@
         <v>226</v>
       </c>
       <c r="E6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F6" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="H6" t="s">
         <v>226</v>
       </c>
       <c r="I6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="J6" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="K6" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -3253,7 +3571,7 @@
         <v>214</v>
       </c>
       <c r="E7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F7" t="s">
         <v>217</v>
@@ -3354,7 +3672,7 @@
   <dimension ref="A2:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3469,48 +3787,48 @@
         <v>193</v>
       </c>
       <c r="B5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D5" t="s">
         <v>244</v>
       </c>
       <c r="E5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H5" t="s">
         <v>197</v>
       </c>
       <c r="I5" t="s">
-        <v>318</v>
+        <v>254</v>
       </c>
       <c r="J5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="K5" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E6" t="s">
         <v>226</v>
@@ -3519,7 +3837,7 @@
         <v>226</v>
       </c>
       <c r="G6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="H6" t="s">
         <v>226</v>
@@ -3528,7 +3846,7 @@
         <v>224</v>
       </c>
       <c r="J6" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="K6" t="s">
         <v>226</v>
@@ -3539,7 +3857,7 @@
         <v>211</v>
       </c>
       <c r="B7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C7" t="s">
         <v>212</v>
@@ -3551,7 +3869,7 @@
         <v>239</v>
       </c>
       <c r="F7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G7" t="s">
         <v>212</v>
@@ -3560,10 +3878,10 @@
         <v>236</v>
       </c>
       <c r="I7" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="J7" t="s">
-        <v>124</v>
+        <v>213</v>
       </c>
       <c r="K7" t="s">
         <v>239</v>
@@ -3595,7 +3913,7 @@
         <v>220</v>
       </c>
       <c r="I8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J8" t="s">
         <v>219</v>
@@ -3764,39 +4082,39 @@
         <v>193</v>
       </c>
       <c r="B5" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C5" t="s">
         <v>242</v>
       </c>
       <c r="D5" t="s">
+        <v>319</v>
+      </c>
+      <c r="E5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F5" t="s">
+        <v>317</v>
+      </c>
+      <c r="G5" t="s">
+        <v>321</v>
+      </c>
+      <c r="H5" t="s">
+        <v>317</v>
+      </c>
+      <c r="I5" t="s">
+        <v>254</v>
+      </c>
+      <c r="J5" t="s">
         <v>322</v>
       </c>
-      <c r="E5" t="s">
-        <v>323</v>
-      </c>
-      <c r="F5" t="s">
-        <v>320</v>
-      </c>
-      <c r="G5" t="s">
-        <v>324</v>
-      </c>
-      <c r="H5" t="s">
-        <v>320</v>
-      </c>
-      <c r="I5" t="s">
-        <v>255</v>
-      </c>
-      <c r="J5" t="s">
-        <v>325</v>
-      </c>
       <c r="K5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B6" t="s">
         <v>226</v>
@@ -3805,28 +4123,28 @@
         <v>226</v>
       </c>
       <c r="D6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="H6" t="s">
         <v>226</v>
       </c>
       <c r="I6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="J6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="K6" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -4059,31 +4377,31 @@
         <v>193</v>
       </c>
       <c r="B5" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C5" t="s">
         <v>200</v>
       </c>
       <c r="D5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F5" t="s">
+        <v>324</v>
+      </c>
+      <c r="G5" t="s">
+        <v>325</v>
+      </c>
+      <c r="H5" t="s">
+        <v>274</v>
+      </c>
+      <c r="I5" t="s">
+        <v>326</v>
+      </c>
+      <c r="J5" t="s">
         <v>327</v>
-      </c>
-      <c r="G5" t="s">
-        <v>328</v>
-      </c>
-      <c r="H5" t="s">
-        <v>276</v>
-      </c>
-      <c r="I5" t="s">
-        <v>329</v>
-      </c>
-      <c r="J5" t="s">
-        <v>330</v>
       </c>
       <c r="K5" t="s">
         <v>202</v>
@@ -4091,7 +4409,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B6" t="s">
         <v>226</v>
@@ -4100,22 +4418,22 @@
         <v>226</v>
       </c>
       <c r="D6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F6" t="s">
         <v>224</v>
       </c>
       <c r="G6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="H6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="I6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="J6" t="s">
         <v>226</v>
@@ -4129,7 +4447,7 @@
         <v>211</v>
       </c>
       <c r="B7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C7" t="s">
         <v>239</v>
@@ -4138,10 +4456,10 @@
         <v>214</v>
       </c>
       <c r="E7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G7" t="s">
         <v>239</v>
@@ -4150,7 +4468,7 @@
         <v>236</v>
       </c>
       <c r="I7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J7" t="s">
         <v>239</v>
@@ -4255,7 +4573,7 @@
         <v>159</v>
       </c>
       <c r="C2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D2" t="s">
         <v>160</v>
@@ -4267,7 +4585,7 @@
         <v>162</v>
       </c>
       <c r="G2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H2" t="s">
         <v>163</v>
@@ -4357,19 +4675,19 @@
         <v>193</v>
       </c>
       <c r="B5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C5" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F5" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G5" t="s">
         <v>245</v>
@@ -4378,48 +4696,48 @@
         <v>200</v>
       </c>
       <c r="I5" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="J5" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="K5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C6" t="s">
         <v>226</v>
       </c>
       <c r="D6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="I6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="J6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="K6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -4436,7 +4754,7 @@
         <v>212</v>
       </c>
       <c r="E7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F7" t="s">
         <v>247</v>
@@ -4451,7 +4769,7 @@
         <v>213</v>
       </c>
       <c r="J7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K7" t="s">
         <v>217</v>
